--- a/TestReport/TestPoint.xlsx
+++ b/TestReport/TestPoint.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>CaseNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>新增已存在房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量新增房型和房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchAdd_RoomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomTypeName1,weekdayPrice,OTARoomTypeName,OTARoomTypeId,RoomNumber1_1,RoomNumber1_2,RoomTypeName2,RoomNumber2_1,RoomNumber2_2,CaseNumber,url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,15 +521,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -775,9 +790,18 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TestReport/TestPoint.xlsx
+++ b/TestReport/TestPoint.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>CaseNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增已存在房型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改已删除房型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增已存在房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>批量新增房型和房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +131,22 @@
   </si>
   <si>
     <t>RoomTypeName1,weekdayPrice,OTARoomTypeName,OTARoomTypeId,RoomNumber1_1,RoomNumber1_2,RoomTypeName2,RoomNumber2_1,RoomNumber2_2,CaseNumber,url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件：删除所有房型和房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同房型，新增房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复新增已存在房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,9 +540,10 @@
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,13 +559,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -568,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -579,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -590,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -601,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -612,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -623,15 +635,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -643,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -654,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -665,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -676,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -687,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -698,12 +710,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -715,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -726,9 +738,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -736,13 +748,13 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -754,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -765,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -776,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>9</v>
       </c>
@@ -787,20 +799,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>28</v>
       </c>
     </row>

--- a/TestReport/TestPoint.xlsx
+++ b/TestReport/TestPoint.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6870"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="王生" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
